--- a/data/fullcircle.xlsx
+++ b/data/fullcircle.xlsx
@@ -6532,7 +6532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6599,6 +6599,17 @@
       </c>
       <c r="C5" t="n">
         <v>6500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/data/fullcircle.xlsx
+++ b/data/fullcircle.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,6 +496,19 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>values</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Our Work - Reliable • Tidy • On-time
+Our Personality - Respectful • Friendly</t>
         </is>
       </c>
     </row>
